--- a/fuentes/contenidos/grado11/guion06/SolicitudGraficaMA_11_06_CO_REC130.xlsx
+++ b/fuentes/contenidos/grado11/guion06/SolicitudGraficaMA_11_06_CO_REC130.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Planeta\Fase 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
@@ -21,13 +21,12 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="192">
   <si>
     <t>Fecha:</t>
   </si>
@@ -1741,7 +1740,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="33" fmlaLink="$H$20" fmlaRange="$H$4:$H$7" noThreeD="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="33" fmlaLink="$H$20" fmlaRange="$H$4:$H$7" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1753,11 +1752,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="33" fmlaLink="$H$20" fmlaRange="$H$4:$H$7" noThreeD="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="33" fmlaLink="$H$20" fmlaRange="$H$4:$H$7" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1770,158 +1769,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>207818</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>259773</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1273677</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>2840182</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13906500" y="4987637"/>
-          <a:ext cx="3715541" cy="2580409"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>173182</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>121227</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1679863</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>3126919</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13871864" y="7723909"/>
-          <a:ext cx="4156363" cy="3005692"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>173182</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>17319</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>2613546</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13871864" y="11014364"/>
-          <a:ext cx="3238500" cy="2596227"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>51955</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>931294</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>2880526</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13889182" y="13733319"/>
-          <a:ext cx="3390476" cy="2828571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -1943,7 +1790,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1952,44 +1799,6 @@
         <a:xfrm>
           <a:off x="14168437" y="16906876"/>
           <a:ext cx="2952750" cy="3624950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2653221</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3405187</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagen 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13858875" y="20788312"/>
-          <a:ext cx="2519871" cy="3357563"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2019,7 +1828,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2057,7 +1866,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2066,44 +1875,6 @@
         <a:xfrm>
           <a:off x="14001749" y="29551313"/>
           <a:ext cx="2547937" cy="2853689"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2452687</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>21035</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Imagen 12"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13716000" y="32980313"/>
-          <a:ext cx="2452687" cy="2902347"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2133,7 +1904,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2142,6 +1913,234 @@
         <a:xfrm>
           <a:off x="13835064" y="2095501"/>
           <a:ext cx="2952748" cy="2492373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>770720</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>89961</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13811250" y="8905875"/>
+          <a:ext cx="6438095" cy="4209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>595312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>699395</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4252455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13811250" y="12715875"/>
+          <a:ext cx="5533333" cy="3657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1885405</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2723863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagen 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13906500" y="18311813"/>
+          <a:ext cx="4361905" cy="2295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3660030</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagen 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13811250" y="25169813"/>
+          <a:ext cx="5500687" cy="3469530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>966337</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>3561911</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagen 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13739813" y="37266563"/>
+          <a:ext cx="3609524" cy="3514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>35895</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>3024187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13716000" y="4691063"/>
+          <a:ext cx="4965083" cy="3024187"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2869,8 +2868,8 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <pane ySplit="9" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3197,13 +3196,13 @@
         <v>M12D</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="11" customFormat="1" ht="226.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="11" customFormat="1" ht="318.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="str">
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
       </c>
-      <c r="B11" s="62" t="s">
-        <v>189</v>
+      <c r="B11" s="62">
+        <v>377912353</v>
       </c>
       <c r="C11" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3238,13 +3237,13 @@
         <v>M101</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="11" customFormat="1" ht="267" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="11" customFormat="1" ht="338.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG03</v>
       </c>
-      <c r="B12" s="62" t="s">
-        <v>189</v>
+      <c r="B12" s="62">
+        <v>279073880</v>
       </c>
       <c r="C12" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3279,13 +3278,13 @@
         <v>Diaporama F1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="382.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG04</v>
       </c>
-      <c r="B13" s="62" t="s">
-        <v>189</v>
+      <c r="B13" s="62">
+        <v>59031811</v>
       </c>
       <c r="C13" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3325,8 +3324,8 @@
         <f t="shared" si="3"/>
         <v>IMG05</v>
       </c>
-      <c r="B14" s="62" t="s">
-        <v>189</v>
+      <c r="B14" s="62">
+        <v>219272452</v>
       </c>
       <c r="C14" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3407,8 +3406,8 @@
         <f t="shared" si="3"/>
         <v>IMG07</v>
       </c>
-      <c r="B16" s="62" t="s">
-        <v>189</v>
+      <c r="B16" s="62">
+        <v>318125816</v>
       </c>
       <c r="C16" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3525,13 +3524,13 @@
         <v>F8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" ht="227.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="306" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="str">
         <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
         <v>IMG10</v>
       </c>
-      <c r="B19" s="62" t="s">
-        <v>189</v>
+      <c r="B19" s="62">
+        <v>157248584</v>
       </c>
       <c r="C19" s="20" t="str">
         <f t="shared" si="0"/>
